--- a/data/trans_bre/CONS_DIG-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>-23,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-39,69%</t>
+          <t>-42,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-33,41%</t>
+          <t>48,74%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,47</t>
+          <t>-3,84; 0,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; -0,35</t>
+          <t>-6,01; -0,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -0,09</t>
+          <t>-0,51; 3,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 142,88</t>
+          <t>-56,08; 23,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,01; -3,36</t>
+          <t>-68,6; -2,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,95; -1,15</t>
+          <t>-21,66; 199,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-45,65%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>-39,42%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,38</t>
+          <t>-3,54; 1,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,47</t>
+          <t>-3,46; 2,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,73</t>
+          <t>-4,9; 1,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,66; 21,4</t>
+          <t>-47,06; 46,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 35,53</t>
+          <t>-50,67; 75,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 45,14</t>
+          <t>-73,92; 38,5</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>-17,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>188,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>-30,26%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 3,58</t>
+          <t>-5,43; 1,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 8,52</t>
+          <t>1,54; 13,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,05</t>
+          <t>-5,58; 2,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,51; 68,21</t>
+          <t>-43,49; 18,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 152,66</t>
+          <t>7,99; 1150,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 22,36</t>
+          <t>-70,97; 57,47</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>-22,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,11%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,81</t>
+          <t>-5,45; 0,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,74</t>
+          <t>-4,1; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,19</t>
+          <t>-2,21; 3,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 90,06</t>
+          <t>-44,09; 2,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 29,0</t>
+          <t>-66,13; 62,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 2,05</t>
+          <t>-32,99; 96,95</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>63,51%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 6,69</t>
+          <t>-0,67; 7,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,82</t>
+          <t>-7,99; 5,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,64</t>
+          <t>-1,01; 5,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 253,67</t>
+          <t>-8,46; 111,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,26; 151,76</t>
+          <t>-68,18; 246,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 123,19</t>
+          <t>-28,07; 252,78</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>12,13</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,77</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1148,01%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>709,4%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>577,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1361,56%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>9,27; 15,19</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 8,59</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 9,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,48; 13,18</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>216,73; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>99,09; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>177,01; 1855,18</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>320,39; 6174,07</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,39</t>
+          <t>-1,04; 1,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,94</t>
+          <t>-0,75; 3,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,7</t>
+          <t>-1,18; 1,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 31,83</t>
+          <t>-11,31; 22,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 50,6</t>
+          <t>-11,45; 84,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 22,87</t>
+          <t>-22,71; 39,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DIG-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-29,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,99</t>
+          <t>-3,88; 0,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,13</t>
+          <t>-6,21; -0,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 23,67</t>
+          <t>-58,85; 6,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,6; -2,11</t>
+          <t>-66,79; -2,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,46%</t>
+          <t>-22,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,8</t>
+          <t>-4,4; 1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,75</t>
+          <t>-3,4; 2,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 46,12</t>
+          <t>-52,42; 36,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,67; 75,38</t>
+          <t>-48,24; 79,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 1,73</t>
+          <t>-3,1; 4,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,8</t>
+          <t>1,28; 14,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 18,35</t>
+          <t>-27,55; 54,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 1150,52</t>
+          <t>14,41; 1189,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>-25,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 0,18</t>
+          <t>-5,07; 0,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,7</t>
+          <t>-4,42; 2,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 2,13</t>
+          <t>-44,04; 1,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,13; 62,1</t>
+          <t>-70,76; 59,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 7,72</t>
+          <t>0,88; 7,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 5,74</t>
+          <t>-7,58; 5,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 111,0</t>
+          <t>8,7; 134,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,18; 246,92</t>
+          <t>-63,83; 272,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,13</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1148,01%</t>
+          <t>1817,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,19</t>
+          <t>9,05; 14,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,59</t>
+          <t>3,87; 8,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>216,73; —</t>
+          <t>365,65; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>99,09; —</t>
+          <t>50,61; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,66</t>
+          <t>-0,73; 1,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,05</t>
+          <t>-0,76; 3,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 22,19</t>
+          <t>-8,99; 23,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 84,54</t>
+          <t>-12,77; 87,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_DIG-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-1,62</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-35,99%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48,74%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-29,69%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-42,21%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>48,74%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,57; 0,27</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 3,63</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-3,88; 0,22</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; -0,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 3,63</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-62,07; 7,77</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-21,66; 199,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-58,85; 6,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-66,79; -2,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-21,66; 199,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-1,42</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,83</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-9,63%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-39,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-22,01%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,45%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-39,42%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-3,47; 2,47</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 1,02</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-4,4; 1,71</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 2,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 1,02</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-50,09; 72,88</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-73,92; 38,5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-52,42; 36,3</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-48,24; 79,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-73,92; 38,5</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,69</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>54,92%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-30,26%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6,87%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>188,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-30,26%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,57; 8,95</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 2,22</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-3,1; 4,75</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 14,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 2,22</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-17,65; 191,66</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-70,97; 57,47</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-27,55; 54,79</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>14,41; 1189,16</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-70,97; 57,47</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>32,14%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-25,32%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,52%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,77; 3,97</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 3,69</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-5,07; 0,13</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 2,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 3,69</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-14,87; 106,7</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-32,99; 96,95</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-44,04; 1,81</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-70,76; 59,5</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-32,99; 96,95</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4,67</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>134,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>63,51%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>60,64%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>27,91%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>63,51%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,17; 7,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 5,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,88; 7,89</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 5,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 5,93</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-1,8; 467,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-28,07; 252,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>8,7; 134,22</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-63,83; 272,24</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-28,07; 252,78</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>11,36</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>742,29%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1817,73%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>709,4%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>4,1; 8,61</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>9,05; 14,25</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 8,54</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66,49; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>365,65; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>50,61; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,51</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>32,86%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,7%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>23,4%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,49; 3,04</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,51</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-0,73; 1,65</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 3,09</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 1,51</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>8,11; 70,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 39,52</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-8,99; 23,56</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 87,03</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-22,71; 39,52</t>
         </is>
       </c>
     </row>
